--- a/genome_accession.xlsx
+++ b/genome_accession.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lyrat\Desktop\work\GH_paleoclimate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lyrat\Desktop\work\G3\GH_paleoclimate\submission\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{66E5BC3B-C6AA-4DE3-88E4-349253234642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D16272DF-B335-4DA5-BBDC-C348DD1A7423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="1044" windowWidth="20556" windowHeight="12228" xr2:uid="{B342D257-2817-40EF-B9F0-BB309D585AB7}"/>
+    <workbookView xWindow="0" yWindow="-1632" windowWidth="35640" windowHeight="13872" xr2:uid="{B342D257-2817-40EF-B9F0-BB309D585AB7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>GCA_000001515.5</t>
   </si>
@@ -229,6 +229,9 @@
   </si>
   <si>
     <t>GCA_011100555.1</t>
+  </si>
+  <si>
+    <t>Cebus capucinus</t>
   </si>
 </sst>
 </file>
@@ -272,10 +275,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -593,7 +595,7 @@
   <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -661,7 +663,7 @@
       <c r="A8" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" t="s">
         <v>15</v>
       </c>
     </row>
@@ -669,7 +671,7 @@
       <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -677,7 +679,7 @@
       <c r="A10" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" t="s">
         <v>19</v>
       </c>
     </row>
@@ -685,7 +687,7 @@
       <c r="A11" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" t="s">
         <v>21</v>
       </c>
     </row>
@@ -693,7 +695,7 @@
       <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" t="s">
         <v>23</v>
       </c>
     </row>
@@ -701,7 +703,7 @@
       <c r="A13" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" t="s">
         <v>0</v>
       </c>
     </row>
@@ -709,7 +711,7 @@
       <c r="A14" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" t="s">
         <v>27</v>
       </c>
     </row>
@@ -717,7 +719,7 @@
       <c r="A15" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" t="s">
         <v>28</v>
       </c>
     </row>
@@ -725,7 +727,7 @@
       <c r="A16" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" t="s">
         <v>31</v>
       </c>
     </row>
@@ -733,7 +735,7 @@
       <c r="A17" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" t="s">
         <v>33</v>
       </c>
     </row>
@@ -741,7 +743,7 @@
       <c r="A18" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" t="s">
         <v>35</v>
       </c>
     </row>
@@ -749,7 +751,7 @@
       <c r="A19" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" t="s">
         <v>37</v>
       </c>
     </row>
@@ -757,7 +759,7 @@
       <c r="A20" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" t="s">
         <v>39</v>
       </c>
     </row>
@@ -765,7 +767,7 @@
       <c r="A21" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" t="s">
         <v>41</v>
       </c>
     </row>
@@ -773,7 +775,7 @@
       <c r="A22" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" t="s">
         <v>43</v>
       </c>
     </row>
@@ -781,7 +783,7 @@
       <c r="A23" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" t="s">
         <v>45</v>
       </c>
     </row>
@@ -789,7 +791,7 @@
       <c r="A24" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" t="s">
         <v>47</v>
       </c>
     </row>
@@ -797,15 +799,15 @@
       <c r="A25" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" t="s">
         <v>50</v>
       </c>
     </row>
@@ -813,7 +815,7 @@
       <c r="A27" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" t="s">
         <v>52</v>
       </c>
     </row>
@@ -821,7 +823,7 @@
       <c r="A28" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" t="s">
         <v>54</v>
       </c>
     </row>
@@ -829,7 +831,7 @@
       <c r="A29" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" t="s">
         <v>56</v>
       </c>
     </row>
@@ -837,7 +839,7 @@
       <c r="A30" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" t="s">
         <v>58</v>
       </c>
     </row>
@@ -845,7 +847,7 @@
       <c r="A31" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" t="s">
         <v>60</v>
       </c>
     </row>
@@ -853,7 +855,7 @@
       <c r="A32" t="s">
         <v>61</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" t="s">
         <v>62</v>
       </c>
     </row>
@@ -861,7 +863,7 @@
       <c r="A33" t="s">
         <v>63</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" t="s">
         <v>64</v>
       </c>
     </row>
